--- a/misc/doc/gr-peach/pin配置.xlsx
+++ b/misc/doc/gr-peach/pin配置.xlsx
@@ -1,30 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\miyazaki\ru-boot\misc\doc\gr-peach\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miyazaki\e2_studio\workspace\gr_peach\misc\doc\gr-peach\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61335AC5-E756-491C-9041-576B12707438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18990" windowHeight="9540"/>
+    <workbookView xWindow="7980" yWindow="1500" windowWidth="20445" windowHeight="13980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="SCI_ボーレート計算" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="72">
   <si>
     <t>ピン番号</t>
     <rPh sb="2" eb="4">
@@ -221,13 +234,132 @@
   </si>
   <si>
     <t>0x8000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CKS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クロック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P1Φ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P1Φ/64</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P1Φ/16</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P1Φ/4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SEMR.ABCSビット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基本クロック16</t>
+    <rPh sb="0" eb="2">
+      <t>キホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基本クロック8</t>
+    <rPh sb="0" eb="2">
+      <t>キホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MHz</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bps</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分子</t>
+    <rPh sb="0" eb="2">
+      <t>ブンシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分母</t>
+    <rPh sb="0" eb="2">
+      <t>ブンボ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分母の指数</t>
+    <rPh sb="0" eb="2">
+      <t>ブンボ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>N(分子÷分母-1)</t>
+    <rPh sb="2" eb="4">
+      <t>ブンシ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ブンボ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>誤差(%)</t>
+    <rPh sb="0" eb="2">
+      <t>ゴサ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -267,8 +399,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -550,11 +685,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C4:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F27" sqref="E27:F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -787,4 +922,180 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{109A88F2-7D53-46C6-A265-8176C3F554A2}">
+  <dimension ref="B4:H20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14">
+        <f>C5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15">
+        <v>66.67</v>
+      </c>
+      <c r="D15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16">
+        <v>115200</v>
+      </c>
+      <c r="D16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" t="s">
+        <v>70</v>
+      </c>
+      <c r="G19" t="s">
+        <v>66</v>
+      </c>
+      <c r="H19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20">
+        <f>C15*10^6</f>
+        <v>66670000</v>
+      </c>
+      <c r="D20">
+        <f>2*C14-1</f>
+        <v>-1</v>
+      </c>
+      <c r="E20">
+        <f>64*POWER(2,D20)*C16</f>
+        <v>3686400</v>
+      </c>
+      <c r="F20">
+        <f>(C20/E20)-1</f>
+        <v>17.085394965277779</v>
+      </c>
+      <c r="G20">
+        <f>TRUNC(F20)</f>
+        <v>17</v>
+      </c>
+      <c r="H20">
+        <f>(C20/(E20*(G20+1))-1)*100</f>
+        <v>0.47441647376542662</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>